--- a/user-data/oda-ibrd/oda-ibrd.xlsx
+++ b/user-data/oda-ibrd/oda-ibrd.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">Description: Gross official development assistance from International Bank for Reconstruction and Development [IBRD]</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>

--- a/user-data/oda-ibrd/oda-ibrd.xlsx
+++ b/user-data/oda-ibrd/oda-ibrd.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">id-to</t>
   </si>
@@ -25,6 +25,150 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
   </si>
   <si>
     <t xml:space="preserve">Name: oda-ibrd</t>
@@ -394,22 +538,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +561,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -425,42 +569,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -492,196 +636,452 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/oda-ibrd/oda-ibrd.xlsx
+++ b/user-data/oda-ibrd/oda-ibrd.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">id-to</t>
   </si>
@@ -27,13 +27,157 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: oda-ibrd</t>
   </si>
   <si>
     <t xml:space="preserve">Description: Gross official development assistance from International Bank for Reconstruction and Development [IBRD]</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>
@@ -394,22 +538,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +561,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -425,42 +569,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -492,196 +636,452 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1977</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1976</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
